--- a/Appendix/2. Project Management/2.3 Sprint Backlogs/2.3.5 Sprint_Backlog_5.xlsx
+++ b/Appendix/2. Project Management/2.3 Sprint Backlogs/2.3.5 Sprint_Backlog_5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kari\Documents\University Folder\Fourth Year\Honours\SprintBacklog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kari\Documents\University Folder\Fourth Year\Honours\Appendix\2. Project Management\2.3 Sprint Backlogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -246,14 +246,7 @@
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="54">
     <dxf>
       <fill>
         <patternFill>
@@ -285,6 +278,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -300,90 +300,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -720,8 +636,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="65"/>
-      <tableStyleElement type="headerRow" dxfId="64"/>
+      <tableStyleElement type="wholeTable" dxfId="53"/>
+      <tableStyleElement type="headerRow" dxfId="52"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1030,7 +946,7 @@
   <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1287,7 +1203,7 @@
       <c r="E10" s="8">
         <v>0</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="8">
         <v>0</v>
       </c>
       <c r="G10" s="8">
@@ -1343,7 +1259,7 @@
       <c r="E11" s="8">
         <v>0</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="8">
         <v>0</v>
       </c>
       <c r="G11" s="8">
@@ -1763,55 +1679,55 @@
       <c r="A20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="8">
         <v>60</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="8">
         <v>60</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="8">
         <v>60</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="8">
         <v>60</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="8">
         <v>60</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="8">
         <v>60</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="8">
         <v>60</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="8">
         <v>60</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="8">
         <v>60</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="8">
         <v>60</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="8">
         <v>30</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="N20" s="8">
+        <v>0</v>
+      </c>
+      <c r="O20" s="8">
+        <v>0</v>
+      </c>
+      <c r="P20" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>0</v>
+      </c>
+      <c r="R20" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1819,55 +1735,55 @@
       <c r="A21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="8">
         <v>100</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="8">
         <v>100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="8">
         <v>100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="8">
         <v>100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="8">
         <v>100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="8">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="8">
         <v>100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="8">
         <v>100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="8">
         <v>100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="8">
         <v>100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="8">
         <v>100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="8">
         <v>100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="8">
         <v>50</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="8">
         <v>10</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="Q21" s="8">
+        <v>0</v>
+      </c>
+      <c r="R21" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1875,55 +1791,55 @@
       <c r="A22" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="8">
         <v>120</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="8">
         <v>120</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="8">
         <v>120</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="8">
         <v>120</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="8">
         <v>120</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="8">
         <v>120</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="8">
         <v>120</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="8">
         <v>120</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="8">
         <v>120</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="8">
         <v>120</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="8">
         <v>120</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="8">
         <v>120</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="8">
         <v>120</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="8">
         <v>120</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="8">
         <v>120</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="8">
         <v>120</v>
       </c>
     </row>
@@ -1931,21 +1847,21 @@
       <c r="A23" s="8"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
@@ -2156,210 +2072,210 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C27">
-    <cfRule type="cellIs" dxfId="63" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="113" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="containsText" dxfId="62" priority="110" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="50" priority="110" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="111" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="49" priority="111" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="112" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="48" priority="112" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="59" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="109" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" dxfId="58" priority="106" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="46" priority="106" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="107" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="45" priority="107" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="108" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="44" priority="108" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="55" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="105" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="containsText" dxfId="54" priority="114" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="42" priority="114" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="115" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="41" priority="115" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="116" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="40" priority="116" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="containsText" dxfId="51" priority="42" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="39" priority="42" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="43" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="38" priority="43" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="44" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="37" priority="44" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="48" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="containsText" dxfId="47" priority="34" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="35" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="36" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="44" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="43" priority="30" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="31" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="32" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="40" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="39" priority="26" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="27" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="28" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="36" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" dxfId="35" priority="22" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="23" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="24" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="32" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="31" priority="14" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="19" priority="14" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="15" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="16" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="28" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="containsText" dxfId="27" priority="18" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="19" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="13" priority="20" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="23" priority="10" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="12" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
